--- a/Configs/GameConfig/Datas/character.xlsx
+++ b/Configs/GameConfig/Datas/character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5C345A-9951-4498-AAF8-E676382CF04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED6FCBF-3D84-4E66-84F2-4C19A65939FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>技能分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PeiKeLiMu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -85,10 +81,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TCharacterID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>佩可莉姆</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -99,6 +91,49 @@
   <si>
     <t>characterType</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCharacterType</t>
   </si>
 </sst>
 </file>
@@ -534,7 +569,7 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,15 +596,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I1" s="13"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -608,7 +651,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="13"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -645,15 +688,23 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="14"/>
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
@@ -693,12 +744,20 @@
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="13"/>
       <c r="J4" s="7"/>
       <c r="K4" s="3"/>
@@ -732,10 +791,22 @@
         <v>10001</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -745,10 +816,22 @@
         <v>10002</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
       </c>
       <c r="I6" s="11"/>
       <c r="L6" s="9"/>
